--- a/测试单-电子书_txt-word_161101.xlsx
+++ b/测试单-电子书_txt-word_161101.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2033" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2037" uniqueCount="675">
   <si>
     <t>编号</t>
   </si>
@@ -5044,6 +5044,18 @@
   </si>
   <si>
     <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加了部分的记录及段落显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第几部分的记忆添加，存储卡还需调试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6098,7 +6110,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="432">
+  <cellXfs count="433">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7410,6 +7422,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="64">
@@ -8282,10 +8297,10 @@
   <dimension ref="A1:P263"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="I250" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O268" sqref="O268"/>
+      <selection pane="bottomRight" activeCell="G256" sqref="G256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -18433,6 +18448,15 @@
       <c r="H254" s="330" t="s">
         <v>280</v>
       </c>
+      <c r="L254" s="319" t="s">
+        <v>672</v>
+      </c>
+      <c r="N254" s="319" t="s">
+        <v>674</v>
+      </c>
+      <c r="O254" s="378">
+        <v>42676</v>
+      </c>
       <c r="P254" s="319" t="s">
         <v>661</v>
       </c>
@@ -18528,6 +18552,15 @@
       </c>
       <c r="H257" s="330" t="s">
         <v>280</v>
+      </c>
+      <c r="L257" s="407" t="s">
+        <v>672</v>
+      </c>
+      <c r="N257" s="407" t="s">
+        <v>673</v>
+      </c>
+      <c r="O257" s="432">
+        <v>42676</v>
       </c>
       <c r="P257" s="407" t="s">
         <v>661</v>
@@ -18728,7 +18761,7 @@
   </sheetData>
   <autoFilter ref="A2:Y263">
     <filterColumn colId="8">
-      <filters blank="1">
+      <filters>
         <filter val="鼎"/>
       </filters>
     </filterColumn>

--- a/测试单-电子书_txt-word_161101.xlsx
+++ b/测试单-电子书_txt-word_161101.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2037" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2040" uniqueCount="678">
   <si>
     <t>编号</t>
   </si>
@@ -5056,6 +5056,18 @@
   </si>
   <si>
     <t>第几部分的记忆添加，存储卡还需调试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个字编码是0xfda3，这个编码没有对应的字，本身就是乱码。没法处理。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8297,10 +8309,10 @@
   <dimension ref="A1:P263"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="I250" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="I247" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G256" sqref="G256"/>
+      <selection pane="bottomRight" activeCell="O261" sqref="O261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -18670,6 +18682,15 @@
       <c r="I260" s="407" t="s">
         <v>649</v>
       </c>
+      <c r="L260" s="407" t="s">
+        <v>675</v>
+      </c>
+      <c r="N260" s="407" t="s">
+        <v>676</v>
+      </c>
+      <c r="O260" s="432">
+        <v>42676</v>
+      </c>
       <c r="P260" s="407" t="s">
         <v>670</v>
       </c>
@@ -18698,6 +18719,12 @@
       </c>
       <c r="H261" s="418" t="s">
         <v>280</v>
+      </c>
+      <c r="L261" s="407" t="s">
+        <v>677</v>
+      </c>
+      <c r="O261" s="432">
+        <v>42676</v>
       </c>
       <c r="P261" s="407" t="s">
         <v>670</v>

--- a/测试单-电子书_txt-word_161101.xlsx
+++ b/测试单-电子书_txt-word_161101.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2040" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2042" uniqueCount="680">
   <si>
     <t>编号</t>
   </si>
@@ -5068,6 +5068,14 @@
   </si>
   <si>
     <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这种情况无法修改。因为在结束的瞬间按【5】键，当前TTS的朗读状态还是【朗读中】，按【5】键调用【暂停】方法，再按【5】键其实是恢复朗读，只是已经到结尾了，所以感觉不到，再按【5】键判断当前TTS是停止状态，恢复朗读。，</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8309,10 +8317,10 @@
   <dimension ref="A1:P263"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="I247" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="I256" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O261" sqref="O261"/>
+      <selection pane="bottomRight" activeCell="N263" sqref="N263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -18759,7 +18767,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="263" spans="1:16" ht="27">
+    <row r="263" spans="1:16" ht="81">
       <c r="A263" s="396">
         <v>261</v>
       </c>
@@ -18780,6 +18788,15 @@
       </c>
       <c r="G263" s="431" t="s">
         <v>659</v>
+      </c>
+      <c r="L263" s="319" t="s">
+        <v>678</v>
+      </c>
+      <c r="N263" s="319" t="s">
+        <v>679</v>
+      </c>
+      <c r="O263" s="378">
+        <v>42676</v>
       </c>
       <c r="P263" s="319" t="s">
         <v>670</v>

--- a/测试单-电子书_txt-word_161101.xlsx
+++ b/测试单-电子书_txt-word_161101.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2042" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2046" uniqueCount="682">
   <si>
     <t>编号</t>
   </si>
@@ -5076,6 +5076,14 @@
   </si>
   <si>
     <t>这种情况无法修改。因为在结束的瞬间按【5】键，当前TTS的朗读状态还是【朗读中】，按【5】键调用【暂停】方法，再按【5】键其实是恢复朗读，只是已经到结尾了，所以感觉不到，再按【5】键判断当前TTS是停止状态，恢复朗读。，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TTS引擎朗读如此</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11月6日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8317,10 +8325,10 @@
   <dimension ref="A1:P263"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="I256" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="J253" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N263" sqref="N263"/>
+      <selection pane="bottomRight" activeCell="K258" sqref="K258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -18340,6 +18348,15 @@
       <c r="G250" s="408" t="s">
         <v>651</v>
       </c>
+      <c r="L250" s="407" t="s">
+        <v>666</v>
+      </c>
+      <c r="N250" s="407" t="s">
+        <v>680</v>
+      </c>
+      <c r="O250" s="378">
+        <v>42680</v>
+      </c>
       <c r="P250" s="407" t="s">
         <v>670</v>
       </c>
@@ -18613,8 +18630,12 @@
       </c>
       <c r="I258" s="418"/>
       <c r="J258" s="424"/>
-      <c r="K258" s="420"/>
-      <c r="L258" s="418"/>
+      <c r="K258" s="420" t="s">
+        <v>681</v>
+      </c>
+      <c r="L258" s="407" t="s">
+        <v>662</v>
+      </c>
       <c r="M258" s="428"/>
       <c r="N258" s="419"/>
       <c r="O258" s="429"/>

--- a/测试单-电子书_txt-word_161101.xlsx
+++ b/测试单-电子书_txt-word_161101.xlsx
@@ -8325,10 +8325,10 @@
   <dimension ref="A1:P263"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="J253" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="O256" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K258" sqref="K258"/>
+      <selection pane="bottomRight" activeCell="G260" sqref="G260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -18630,15 +18630,14 @@
       </c>
       <c r="I258" s="418"/>
       <c r="J258" s="424"/>
-      <c r="K258" s="420" t="s">
-        <v>681</v>
-      </c>
       <c r="L258" s="407" t="s">
         <v>662</v>
       </c>
       <c r="M258" s="428"/>
       <c r="N258" s="419"/>
-      <c r="O258" s="429"/>
+      <c r="O258" s="420" t="s">
+        <v>681</v>
+      </c>
       <c r="P258" s="426" t="s">
         <v>670</v>
       </c>

--- a/测试单-电子书_txt-word_161101.xlsx
+++ b/测试单-电子书_txt-word_161101.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2046" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2048" uniqueCount="682">
   <si>
     <t>编号</t>
   </si>
@@ -8325,10 +8325,10 @@
   <dimension ref="A1:P263"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="O256" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G260" sqref="G260"/>
+      <selection pane="bottomRight" activeCell="O247" sqref="O247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -18172,6 +18172,12 @@
       <c r="G244" s="359" t="s">
         <v>636</v>
       </c>
+      <c r="L244" s="319" t="s">
+        <v>662</v>
+      </c>
+      <c r="O244" s="378">
+        <v>42687</v>
+      </c>
       <c r="P244" s="319" t="s">
         <v>670</v>
       </c>
@@ -18263,6 +18269,12 @@
       </c>
       <c r="G247" s="408" t="s">
         <v>637</v>
+      </c>
+      <c r="L247" s="319" t="s">
+        <v>662</v>
+      </c>
+      <c r="O247" s="378">
+        <v>42687</v>
       </c>
       <c r="P247" s="407" t="s">
         <v>670</v>

--- a/测试单-电子书_txt-word_161101.xlsx
+++ b/测试单-电子书_txt-word_161101.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2048" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2050" uniqueCount="684">
   <si>
     <t>编号</t>
   </si>
@@ -5084,6 +5084,14 @@
   </si>
   <si>
     <t>11月6日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加按照部分查询断点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8325,10 +8333,10 @@
   <dimension ref="A1:P263"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="I80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O247" sqref="O247"/>
+      <selection pane="bottomRight" activeCell="L274" sqref="L274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -17023,7 +17031,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="215" spans="1:16" ht="27">
+    <row r="215" spans="1:16" ht="27" hidden="1">
       <c r="A215" s="285">
         <v>213</v>
       </c>
@@ -17912,8 +17920,15 @@
       <c r="H236" s="330" t="s">
         <v>280</v>
       </c>
-      <c r="L236" s="330"/>
-      <c r="O236" s="378"/>
+      <c r="L236" s="418" t="s">
+        <v>682</v>
+      </c>
+      <c r="N236" s="319" t="s">
+        <v>683</v>
+      </c>
+      <c r="O236" s="378">
+        <v>42689</v>
+      </c>
       <c r="P236" s="319" t="s">
         <v>661</v>
       </c>
@@ -18080,7 +18095,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="242" spans="1:16" s="319" customFormat="1" ht="27">
+    <row r="242" spans="1:16" s="319" customFormat="1" ht="27" hidden="1">
       <c r="A242" s="396">
         <v>240</v>
       </c>
@@ -18115,7 +18130,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="243" spans="1:16" s="319" customFormat="1" ht="27">
+    <row r="243" spans="1:16" s="319" customFormat="1" ht="27" hidden="1">
       <c r="A243" s="396">
         <v>241</v>
       </c>
@@ -18150,7 +18165,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="244" spans="1:16" ht="40.5">
+    <row r="244" spans="1:16" ht="40.5" hidden="1">
       <c r="A244" s="396">
         <v>242</v>
       </c>
@@ -18248,7 +18263,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="247" spans="1:16" s="407" customFormat="1" ht="40.5">
+    <row r="247" spans="1:16" s="407" customFormat="1" ht="40.5" hidden="1">
       <c r="A247" s="396">
         <v>245</v>
       </c>
@@ -18309,7 +18324,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="249" spans="1:16" s="407" customFormat="1" ht="27">
+    <row r="249" spans="1:16" s="407" customFormat="1" ht="27" hidden="1">
       <c r="A249" s="396">
         <v>247</v>
       </c>
@@ -18338,7 +18353,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="250" spans="1:16" s="407" customFormat="1" ht="27">
+    <row r="250" spans="1:16" s="407" customFormat="1" ht="27" hidden="1">
       <c r="A250" s="396">
         <v>248</v>
       </c>
@@ -18373,7 +18388,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="251" spans="1:16" s="407" customFormat="1" ht="67.5">
+    <row r="251" spans="1:16" s="407" customFormat="1" ht="67.5" hidden="1">
       <c r="A251" s="396">
         <v>249</v>
       </c>
@@ -18402,7 +18417,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="252" spans="1:16" s="407" customFormat="1" ht="27">
+    <row r="252" spans="1:16" s="407" customFormat="1" ht="27" hidden="1">
       <c r="A252" s="396">
         <v>250</v>
       </c>
@@ -18431,7 +18446,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="253" spans="1:16" s="407" customFormat="1" ht="27">
+    <row r="253" spans="1:16" s="407" customFormat="1" ht="27" hidden="1">
       <c r="A253" s="396">
         <v>251</v>
       </c>
@@ -18548,7 +18563,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="256" spans="1:16" s="407" customFormat="1" ht="27">
+    <row r="256" spans="1:16" s="407" customFormat="1" ht="27" hidden="1">
       <c r="A256" s="396">
         <v>254</v>
       </c>
@@ -18615,7 +18630,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="258" spans="1:16" ht="27">
+    <row r="258" spans="1:16" ht="27" hidden="1">
       <c r="A258" s="396">
         <v>256</v>
       </c>
@@ -18654,7 +18669,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="259" spans="1:16" s="319" customFormat="1" ht="40.5">
+    <row r="259" spans="1:16" s="319" customFormat="1" ht="40.5" hidden="1">
       <c r="A259" s="396">
         <v>257</v>
       </c>
@@ -18694,7 +18709,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="260" spans="1:16" s="407" customFormat="1" ht="27">
+    <row r="260" spans="1:16" s="407" customFormat="1" ht="27" hidden="1">
       <c r="A260" s="396">
         <v>258</v>
       </c>
@@ -18735,7 +18750,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="261" spans="1:16" s="407" customFormat="1" ht="40.5">
+    <row r="261" spans="1:16" s="407" customFormat="1" ht="40.5" hidden="1">
       <c r="A261" s="396">
         <v>259</v>
       </c>
@@ -18770,7 +18785,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="262" spans="1:16" s="407" customFormat="1" ht="40.5">
+    <row r="262" spans="1:16" s="407" customFormat="1" ht="40.5" hidden="1">
       <c r="A262" s="396">
         <v>260</v>
       </c>
@@ -18799,7 +18814,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="263" spans="1:16" ht="81">
+    <row r="263" spans="1:16" ht="81" hidden="1">
       <c r="A263" s="396">
         <v>261</v>
       </c>
@@ -18839,6 +18854,11 @@
     <filterColumn colId="8">
       <filters>
         <filter val="鼎"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="15">
+      <filters>
+        <filter val="j"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/测试单-电子书_txt-word_161101.xlsx
+++ b/测试单-电子书_txt-word_161101.xlsx
@@ -5055,10 +5055,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第几部分的记忆添加，存储卡还需调试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>否</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5092,6 +5088,10 @@
   </si>
   <si>
     <t>添加按照部分查询断点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第几部分的记忆添加，存储卡已经添加记忆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8336,7 +8336,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="I80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L274" sqref="L274"/>
+      <selection pane="bottomRight" activeCell="N273" sqref="N273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -17921,10 +17921,10 @@
         <v>280</v>
       </c>
       <c r="L236" s="418" t="s">
+        <v>681</v>
+      </c>
+      <c r="N236" s="319" t="s">
         <v>682</v>
-      </c>
-      <c r="N236" s="319" t="s">
-        <v>683</v>
       </c>
       <c r="O236" s="378">
         <v>42689</v>
@@ -18379,7 +18379,7 @@
         <v>666</v>
       </c>
       <c r="N250" s="407" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="O250" s="378">
         <v>42680</v>
@@ -18516,7 +18516,7 @@
         <v>672</v>
       </c>
       <c r="N254" s="319" t="s">
-        <v>674</v>
+        <v>683</v>
       </c>
       <c r="O254" s="378">
         <v>42676</v>
@@ -18663,7 +18663,7 @@
       <c r="M258" s="428"/>
       <c r="N258" s="419"/>
       <c r="O258" s="420" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="P258" s="426" t="s">
         <v>670</v>
@@ -18738,10 +18738,10 @@
         <v>649</v>
       </c>
       <c r="L260" s="407" t="s">
+        <v>674</v>
+      </c>
+      <c r="N260" s="407" t="s">
         <v>675</v>
-      </c>
-      <c r="N260" s="407" t="s">
-        <v>676</v>
       </c>
       <c r="O260" s="432">
         <v>42676</v>
@@ -18776,7 +18776,7 @@
         <v>280</v>
       </c>
       <c r="L261" s="407" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="O261" s="432">
         <v>42676</v>
@@ -18837,10 +18837,10 @@
         <v>659</v>
       </c>
       <c r="L263" s="319" t="s">
+        <v>677</v>
+      </c>
+      <c r="N263" s="319" t="s">
         <v>678</v>
-      </c>
-      <c r="N263" s="319" t="s">
-        <v>679</v>
       </c>
       <c r="O263" s="378">
         <v>42676</v>

--- a/测试单-电子书_txt-word_161101.xlsx
+++ b/测试单-电子书_txt-word_161101.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2050" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2051" uniqueCount="685">
   <si>
     <t>编号</t>
   </si>
@@ -5092,6 +5092,10 @@
   </si>
   <si>
     <t>第几部分的记忆添加，存储卡已经添加记忆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8333,10 +8337,10 @@
   <dimension ref="A1:P263"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="I80" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="L80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N273" sqref="N273"/>
+      <selection pane="bottomRight" activeCell="L241" sqref="L241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -17895,7 +17899,7 @@
         <v>42669</v>
       </c>
     </row>
-    <row r="236" spans="1:16" s="319" customFormat="1" ht="40.5">
+    <row r="236" spans="1:16" s="319" customFormat="1" ht="40.5" hidden="1">
       <c r="A236" s="396">
         <v>234</v>
       </c>
@@ -18091,6 +18095,12 @@
       <c r="H241" s="330" t="s">
         <v>280</v>
       </c>
+      <c r="L241" s="319" t="s">
+        <v>684</v>
+      </c>
+      <c r="O241" s="378">
+        <v>42694</v>
+      </c>
       <c r="P241" s="319" t="s">
         <v>661</v>
       </c>
@@ -18324,7 +18334,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="249" spans="1:16" s="407" customFormat="1" ht="27" hidden="1">
+    <row r="249" spans="1:16" s="407" customFormat="1" ht="27">
       <c r="A249" s="396">
         <v>247</v>
       </c>
@@ -18388,7 +18398,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="251" spans="1:16" s="407" customFormat="1" ht="67.5" hidden="1">
+    <row r="251" spans="1:16" s="407" customFormat="1" ht="67.5">
       <c r="A251" s="396">
         <v>249</v>
       </c>
@@ -18417,7 +18427,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="252" spans="1:16" s="407" customFormat="1" ht="27" hidden="1">
+    <row r="252" spans="1:16" s="407" customFormat="1" ht="27">
       <c r="A252" s="396">
         <v>250</v>
       </c>
@@ -18487,7 +18497,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="254" spans="1:16" ht="54">
+    <row r="254" spans="1:16" ht="54" hidden="1">
       <c r="A254" s="396">
         <v>252</v>
       </c>
@@ -18525,7 +18535,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="255" spans="1:16" s="407" customFormat="1">
+    <row r="255" spans="1:16" s="407" customFormat="1" hidden="1">
       <c r="A255" s="396">
         <v>253</v>
       </c>
@@ -18563,7 +18573,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="256" spans="1:16" s="407" customFormat="1" ht="27" hidden="1">
+    <row r="256" spans="1:16" s="407" customFormat="1" ht="27">
       <c r="A256" s="396">
         <v>254</v>
       </c>
@@ -18592,7 +18602,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="257" spans="1:16" s="407" customFormat="1" ht="27">
+    <row r="257" spans="1:16" s="407" customFormat="1" ht="27" hidden="1">
       <c r="A257" s="396">
         <v>255</v>
       </c>
@@ -18785,7 +18795,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="262" spans="1:16" s="407" customFormat="1" ht="40.5" hidden="1">
+    <row r="262" spans="1:16" s="407" customFormat="1" ht="40.5">
       <c r="A262" s="396">
         <v>260</v>
       </c>
@@ -18852,15 +18862,12 @@
   </sheetData>
   <autoFilter ref="A2:Y263">
     <filterColumn colId="8">
-      <filters>
-        <filter val="鼎"/>
-      </filters>
+      <filters blank="1"/>
     </filterColumn>
-    <filterColumn colId="15">
-      <filters>
-        <filter val="j"/>
-      </filters>
+    <filterColumn colId="11">
+      <filters blank="1"/>
     </filterColumn>
+    <filterColumn colId="15"/>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
